--- a/progetti-per-test/angular-example/confronto-pratiche-angular.xlsx
+++ b/progetti-per-test/angular-example/confronto-pratiche-angular.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Applicazione: angular-example - Confronto Robustezza Locatori</t>
   </si>
@@ -94,7 +94,16 @@
     <t>Test con successo</t>
   </si>
   <si>
-    <t>Totale</t>
+    <t>Totale fallimenti</t>
+  </si>
+  <si>
+    <t>Generazioni mancanti</t>
+  </si>
+  <si>
+    <t>Generazioni non necessarie</t>
+  </si>
+  <si>
+    <t>Generazioni necessarie ma errate</t>
   </si>
 </sst>
 </file>
@@ -963,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -974,8 +983,8 @@
     <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="4" width="16.3984375" customWidth="1"/>
     <col min="5" max="5" width="24.09765625" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="6" max="6" width="27.09765625" customWidth="1"/>
+    <col min="7" max="7" width="29.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1348,9 +1357,15 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -1368,9 +1383,15 @@
         <f>SUM(B20,C20)</f>
         <v>47</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
@@ -1388,9 +1409,15 @@
         <f>SUM(B21,C21)</f>
         <v>53</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
